--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Bosque Aleatorio" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Red Neuronal" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Red Neuronal Sobremuestreada" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Árbol de Decisión" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -590,7 +591,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7922077922077922</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="3">
@@ -623,10 +624,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8676470588235294</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="5">
@@ -639,7 +640,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.890625</v>
+        <v>0.921875</v>
       </c>
       <c r="D5" t="n">
         <v>0.3076923076923077</v>
@@ -655,10 +656,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8769230769230769</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
   </sheetData>
@@ -1036,6 +1037,7 @@
       <c r="C2" t="n">
         <v>0.8311688311688312</v>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1145,9 +1147,8 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8548387096774194</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0.8145161290322581</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1179,10 +1180,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9344262295081968</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
     </row>
     <row r="5">
@@ -1198,7 +1199,7 @@
         <v>0.8028169014084507</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9245283018867925</v>
+        <v>0.8301886792452831</v>
       </c>
     </row>
     <row r="6">
@@ -1211,10 +1212,121 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8321167883211679</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.7927927927927928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8051948051948052</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Clase</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Healthy</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No Healthy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8656716417910447</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8854961832061069</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3478260869565217</v>
       </c>
     </row>
   </sheetData>
